--- a/BRK.A.xlsx
+++ b/BRK.A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7137E5-78DD-4340-80C1-3211B19BF9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE402C22-FDCE-4287-932E-EE84CD5F1885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FEC4A256-88D5-4944-89C5-A53B171E4140}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{FEC4A256-88D5-4944-89C5-A53B171E4140}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +94,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -466,106 +472,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4808F3-271A-4288-9C02-9758D12E25F5}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>688327.56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>527.85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>0.54618900000000004</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>1338.051639</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f>+I2*I4+I3*I5</f>
         <v>1082247.4993149901</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>44333+286472+15364+271588+3396</f>
         <v>621153</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>44885+12769+79877</f>
         <v>137531</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f>+I6-I7+I8</f>
         <v>598625.49931499013</v>
       </c>
